--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2210.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2210.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.219464073530608</v>
+        <v>0.9545444846153259</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.200924634933472</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>8.401504516601562</v>
       </c>
       <c r="D1">
-        <v>1.286304180458683</v>
+        <v>1.688021540641785</v>
       </c>
       <c r="E1">
-        <v>0.8917842102743202</v>
+        <v>1.394658088684082</v>
       </c>
     </row>
   </sheetData>
